--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/WI/bldgs/PCFURfE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/pcfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA034B20-A944-F441-8B28-7D10EC98163B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9265518-8980-EF4D-A7C7-2F944EE68A55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9120" yWindow="1420" windowWidth="18400" windowHeight="14920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="403">
   <si>
     <t>Source:</t>
   </si>
@@ -1244,9 +1244,6 @@
   </si>
   <si>
     <t>8/ Consumption determined by using the average electric power sector net heat rate for fossil fuels.</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1459,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1604,6 +1601,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="13" xr:uid="{F0294189-DCE2-4A9C-A206-033C029239E6}"/>
@@ -1956,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
@@ -1968,15 +1966,15 @@
     <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="63">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1984,57 +1982,57 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
